--- a/TACTS_v3/myLearningData/myDataDescription_231007_1358_3line.xlsx
+++ b/TACTS_v3/myLearningData/myDataDescription_231007_1358_3line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME program\2017-PhD\01_research\02Study\34_ballon_like_cover\DeepLearing\TACTS\TACTS_v3\myLearningData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95AFEEE-D371-4363-B193-C647EAC4A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{694478AC-922D-456F-867B-33169E19B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="450" windowWidth="17925" windowHeight="15075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="0" windowWidth="15450" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +331,26 @@
   </si>
   <si>
     <t>432/128/32/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nornmal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024/1024/1024/1024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,8 +358,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -407,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -429,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -821,10 +846,10 @@
       <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -1688,19 +1713,19 @@
         <v>18944</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:G37" si="5">C36*D36+D36</f>
+        <f>C36*D36+D36</f>
         <v>65664</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="5"/>
+        <f>D36*E36+E36</f>
         <v>4128</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="5"/>
+        <f>E36*F36+F36</f>
         <v>1056</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="5"/>
+        <f>F36*G36+G36</f>
         <v>165</v>
       </c>
       <c r="H37" s="2">
@@ -1734,19 +1759,19 @@
         <v>14208</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39" si="6">C38*D38+D38</f>
+        <f>C38*D38+D38</f>
         <v>49280</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" ref="E39" si="7">D38*E38+E38</f>
+        <f>D38*E38+E38</f>
         <v>4128</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39" si="8">E38*F38+F38</f>
+        <f>E38*F38+F38</f>
         <v>1056</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39" si="9">F38*G38+G38</f>
+        <f>F38*G38+G38</f>
         <v>165</v>
       </c>
       <c r="H39" s="2">
@@ -1780,19 +1805,19 @@
         <v>11840</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41" si="10">C40*D40+D40</f>
+        <f>C40*D40+D40</f>
         <v>41088</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" ref="E41" si="11">D40*E40+E40</f>
+        <f>D40*E40+E40</f>
         <v>4128</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41" si="12">E40*F40+F40</f>
+        <f>E40*F40+F40</f>
         <v>1056</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" ref="G41" si="13">F40*G40+G40</f>
+        <f>F40*G40+G40</f>
         <v>165</v>
       </c>
       <c r="H41" s="2">
@@ -1822,19 +1847,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2346DC-7C68-44AD-B87D-74D62FE6683F}">
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H20" sqref="H4:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="9" style="2"/>
     <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1843,10 +1869,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1871,14 +1902,23 @@
         <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1908,25 +1948,30 @@
       <c r="I4" s="6">
         <v>21764</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="9">
+        <v>0.2288</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="2">
         <v>-1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M14" si="0">F4/I4*1000</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P14" si="0">F4/I4*1000</f>
         <v>0.28854989891563926</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <f>G4/I4*1000</f>
         <v>2.26539533121989</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1956,19 +2001,26 @@
       <c r="I5" s="6">
         <v>38276</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="M5">
+      <c r="J5" s="9">
+        <v>1.091</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>0.45224161354373354</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N10" si="3">G5/I5*1000</f>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q10" si="3">G5/I5*1000</f>
         <v>1.9051750637234137</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1998,19 +2050,26 @@
       <c r="I6" s="6">
         <v>54272</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="M6">
+      <c r="J6" s="9">
+        <v>1.542</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.53510000000000002</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>0.33590064858490598</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <f t="shared" si="3"/>
         <v>1.3835332518447607</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2040,19 +2099,26 @@
       <c r="I7" s="6">
         <v>71300</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="M7">
+      <c r="J7" s="9">
+        <v>2.016</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>0.2179523141654974</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <f t="shared" si="3"/>
         <v>0.93350887915117375</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2082,19 +2148,26 @@
       <c r="I8" s="6">
         <v>87296</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8">
+      <c r="J8" s="9">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>0.16587243401759549</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <f t="shared" si="3"/>
         <v>0.71909787513718992</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2124,19 +2197,28 @@
       <c r="I9" s="6">
         <v>208133</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9">
+      <c r="J9" s="9">
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>0.12343069095241985</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <f t="shared" si="3"/>
         <v>0.56291249361195694</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2166,19 +2248,26 @@
       <c r="I10" s="6">
         <v>808964</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="M10">
+      <c r="J10" s="9">
+        <v>58.97</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
+        <v>6.742</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>3.9210644725846844E-2</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <f t="shared" si="3"/>
         <v>0.26560831510947547</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2203,24 +2292,31 @@
         <v>122.97790836236867</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6">
         <v>97284</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
-      <c r="M11">
+      <c r="J11" s="9">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
+        <v>0.9194</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1"/>
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>0.26468895193454217</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <f>F11*F11/I11</f>
         <v>6.8157405123144606E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2250,19 +2346,26 @@
       <c r="I12" s="6">
         <v>89924</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="M12">
+      <c r="J12" s="9">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="1"/>
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>0.28524087006805721</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <f>F12*F12/I12</f>
         <v>7.3164283172456619E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2292,20 +2395,23 @@
       <c r="I13" s="6">
         <v>89332</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
-      <c r="M13">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>0.30537769220436162</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <f>F13*F13/I13</f>
         <v>8.330703443334992E-3</v>
       </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2335,19 +2441,22 @@
       <c r="I14" s="6">
         <v>87012</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>0.30386613340688634</v>
       </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N20" si="4">F14*F14/I14</f>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q20" si="4">F14*F14/I14</f>
         <v>8.0342205672780751E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2377,19 +2486,22 @@
       <c r="I15" s="6">
         <v>89036</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
-      <c r="M15">
-        <f t="shared" ref="M15:M20" si="5">F15/I15*1000</f>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15">
+        <f t="shared" ref="P15:P20" si="5">F15/I15*1000</f>
         <v>0.31066085628285217</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <f t="shared" si="4"/>
         <v>8.5928792847836978E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2405,19 +2517,22 @@
         <v>80</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" t="e">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="1"/>
+      <c r="P16" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" t="e">
+      <c r="Q16" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2447,19 +2562,26 @@
       <c r="I17" s="6">
         <v>65572</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17">
+      <c r="J17" s="9">
+        <v>1.833</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9">
+        <v>0.6401</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17">
         <f t="shared" si="5"/>
         <v>0.38873299579088649</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <f t="shared" si="4"/>
         <v>9.9088040627097005E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2489,19 +2611,26 @@
       <c r="I18" s="6">
         <v>76132</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18">
+      <c r="J18" s="9">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18">
         <f t="shared" si="5"/>
         <v>0.34860505437923561</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <f t="shared" si="4"/>
         <v>9.2519781432248999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2531,46 +2660,72 @@
       <c r="I19" s="6">
         <v>57652</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
-      <c r="M19">
+      <c r="J19" s="9">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
+        <v>0.56969999999999998</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19">
         <f t="shared" si="5"/>
         <v>0.4489002983417747</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <f t="shared" si="4"/>
         <v>1.1617539721085127E-2</v>
       </c>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B20" s="2">
+        <v>97.03</v>
+      </c>
+      <c r="C20" s="2">
+        <v>98.72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>98.91</v>
+      </c>
+      <c r="E20" s="2">
+        <v>99.06</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>-360</v>
+        <v>33.71999999999997</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" t="e">
+        <v>305.92113165949286</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3190788</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1"/>
+      <c r="P20">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>1.056792240662807E-2</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.563503435514983E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -2580,9 +2735,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2592,9 +2750,12 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2604,9 +2765,12 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2616,9 +2780,12 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -2628,23 +2795,26 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>36</v>
       </c>
@@ -2670,8 +2840,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <f>B28*C28+C28</f>
@@ -2702,12 +2875,15 @@
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="2">
-        <f>SUM(C29:J29)</f>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2">
+        <f>SUM(C29:M29)</f>
         <v>87296</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2715,8 +2891,9 @@
       <c r="F30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K3:L3"/>
+  <mergeCells count="2">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,10 +2967,10 @@
       <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2812,11 +2989,11 @@
         <v>97.89</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4" si="0">SUM(B4:E4)-360</f>
+        <f>SUM(B4:E4)-360</f>
         <v>28.019999999999982</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4" si="1">B4/(100-B4) + C4/(100-C4)  +D4/(100-D4) +E4/(100-E4)</f>
+        <f>B4/(100-B4) + C4/(100-C4)  +D4/(100-D4) +E4/(100-E4)</f>
         <v>165.98509375042434</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2838,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N20" si="2">F4/I4*1000</f>
+        <f t="shared" ref="N4:N20" si="0">F4/I4*1000</f>
         <v>0.2880226964351793</v>
       </c>
       <c r="O4">
@@ -2863,11 +3040,11 @@
         <v>98.49</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F20" si="3">SUM(B5:E5)-360</f>
+        <f t="shared" ref="F5:F20" si="1">SUM(B5:E5)-360</f>
         <v>29.200000000000045</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G20" si="4">B5/(100-B5) + C5/(100-C5)  +D5/(100-D5) +E5/(100-E5)</f>
+        <f t="shared" ref="G5:G20" si="2">B5/(100-B5) + C5/(100-C5)  +D5/(100-D5) +E5/(100-E5)</f>
         <v>187.58731702155336</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2881,11 +3058,11 @@
       <c r="L5" s="2"/>
       <c r="M5" s="1"/>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.32471865130554739</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O10" si="5">G5/I5*1000</f>
+        <f t="shared" ref="O5:O10" si="3">G5/I5*1000</f>
         <v>2.0860650885364684</v>
       </c>
     </row>
@@ -2898,11 +3075,11 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2916,11 +3093,11 @@
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-6.6332547169811322</v>
       </c>
       <c r="O6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,11 +3110,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2951,11 +3128,11 @@
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-5.0490883590462836</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,11 +3145,11 @@
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2986,11 +3163,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-4.1239002932551321</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3003,11 +3180,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3021,11 +3198,11 @@
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-1.7296632441755992</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3038,11 +3215,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3056,11 +3233,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-0.44501362236144004</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3073,11 +3250,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
@@ -3087,7 +3264,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" t="e">
@@ -3104,11 +3281,11 @@
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
@@ -3118,7 +3295,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" t="e">
@@ -3135,11 +3312,11 @@
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
@@ -3149,7 +3326,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" t="e">
@@ -3166,11 +3343,11 @@
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -3180,11 +3357,11 @@
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" t="e">
-        <f t="shared" ref="O14:O20" si="6">F14*F14/I14</f>
+        <f t="shared" ref="O14:O20" si="4">F14*F14/I14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3197,11 +3374,11 @@
       <c r="D15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
@@ -3211,11 +3388,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3228,11 +3405,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
@@ -3242,11 +3419,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3259,11 +3436,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
@@ -3273,11 +3450,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3290,11 +3467,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="2"/>
@@ -3304,11 +3481,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3321,11 +3498,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="2"/>
@@ -3335,11 +3512,11 @@
       <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3352,11 +3529,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-360</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="2"/>
@@ -3366,11 +3543,11 @@
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3508,27 +3685,27 @@
         <v>4736</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:I29" si="7">C28*D28+D28</f>
+        <f t="shared" ref="D29:I29" si="5">C28*D28+D28</f>
         <v>16512</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16512</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16512</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16512</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>16512</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
